--- a/Analytics/E0/ShirtsXbookings_e0.xlsx
+++ b/Analytics/E0/ShirtsXbookings_e0.xlsx
@@ -82,73 +82,73 @@
     <t>20</t>
   </si>
   <si>
+    <t>Fulham</t>
+  </si>
+  <si>
+    <t>Brighton</t>
+  </si>
+  <si>
+    <t>Southampton</t>
+  </si>
+  <si>
+    <t>Chelsea</t>
+  </si>
+  <si>
+    <t>Leicester</t>
+  </si>
+  <si>
+    <t>Arsenal</t>
+  </si>
+  <si>
+    <t>Man United</t>
+  </si>
+  <si>
+    <t>Man City</t>
+  </si>
+  <si>
+    <t>Wolves</t>
+  </si>
+  <si>
+    <t>Brentford</t>
+  </si>
+  <si>
+    <t>Bournemouth</t>
+  </si>
+  <si>
+    <t>Tottenham</t>
+  </si>
+  <si>
+    <t>Newcastle</t>
+  </si>
+  <si>
+    <t>West Ham</t>
+  </si>
+  <si>
+    <t>Ipswich</t>
+  </si>
+  <si>
     <t>Aston Villa</t>
   </si>
   <si>
-    <t>Tottenham</t>
-  </si>
-  <si>
-    <t>Chelsea</t>
-  </si>
-  <si>
-    <t>Brighton</t>
-  </si>
-  <si>
-    <t>Sheffield United</t>
-  </si>
-  <si>
-    <t>Wolves</t>
-  </si>
-  <si>
-    <t>Burnley</t>
-  </si>
-  <si>
-    <t>Newcastle</t>
-  </si>
-  <si>
-    <t>Man United</t>
-  </si>
-  <si>
-    <t>Man City</t>
-  </si>
-  <si>
-    <t>Brentford</t>
-  </si>
-  <si>
-    <t>Arsenal</t>
+    <t>Nottm Forest</t>
   </si>
   <si>
     <t>Liverpool</t>
   </si>
   <si>
+    <t>Everton</t>
+  </si>
+  <si>
     <t>Crystal Palace</t>
   </si>
   <si>
-    <t>West Ham</t>
-  </si>
-  <si>
-    <t>Bournemouth</t>
-  </si>
-  <si>
-    <t>Luton</t>
-  </si>
-  <si>
-    <t>Fulham</t>
-  </si>
-  <si>
-    <t>Nottm Forest</t>
-  </si>
-  <si>
-    <t>Everton</t>
-  </si>
-  <si>
     <t>AwayTeam</t>
   </si>
   <si>
     <t>SUM("TShirtsXbookings")</t>
   </si>
   <si>
-    <t>SUM("TShirtsXbookings") / 38</t>
+    <t>SUM("TShirtsXbookings") / 10</t>
   </si>
 </sst>
 </file>
@@ -216,7 +216,7 @@
         <v>22</v>
       </c>
       <c r="C2" t="n">
-        <v>66435.0</v>
+        <v>17120.0</v>
       </c>
     </row>
     <row r="3">
@@ -227,7 +227,7 @@
         <v>23</v>
       </c>
       <c r="C3" t="n">
-        <v>64780.0</v>
+        <v>17000.0</v>
       </c>
     </row>
     <row r="4">
@@ -238,7 +238,7 @@
         <v>24</v>
       </c>
       <c r="C4" t="n">
-        <v>58650.0</v>
+        <v>16270.0</v>
       </c>
     </row>
     <row r="5">
@@ -249,7 +249,7 @@
         <v>25</v>
       </c>
       <c r="C5" t="n">
-        <v>53805.0</v>
+        <v>14260.0</v>
       </c>
     </row>
     <row r="6">
@@ -260,7 +260,7 @@
         <v>26</v>
       </c>
       <c r="C6" t="n">
-        <v>51230.0</v>
+        <v>13520.0</v>
       </c>
     </row>
     <row r="7">
@@ -271,7 +271,7 @@
         <v>27</v>
       </c>
       <c r="C7" t="n">
-        <v>51155.0</v>
+        <v>12210.0</v>
       </c>
     </row>
     <row r="8">
@@ -282,7 +282,7 @@
         <v>28</v>
       </c>
       <c r="C8" t="n">
-        <v>49665.0</v>
+        <v>12190.0</v>
       </c>
     </row>
     <row r="9">
@@ -293,7 +293,7 @@
         <v>29</v>
       </c>
       <c r="C9" t="n">
-        <v>49645.0</v>
+        <v>11525.0</v>
       </c>
     </row>
     <row r="10">
@@ -304,7 +304,7 @@
         <v>30</v>
       </c>
       <c r="C10" t="n">
-        <v>48665.0</v>
+        <v>10760.0</v>
       </c>
     </row>
     <row r="11">
@@ -315,7 +315,7 @@
         <v>31</v>
       </c>
       <c r="C11" t="n">
-        <v>48485.0</v>
+        <v>10600.0</v>
       </c>
     </row>
     <row r="12">
@@ -326,7 +326,7 @@
         <v>32</v>
       </c>
       <c r="C12" t="n">
-        <v>47020.0</v>
+        <v>10075.0</v>
       </c>
     </row>
     <row r="13">
@@ -337,7 +337,7 @@
         <v>33</v>
       </c>
       <c r="C13" t="n">
-        <v>43760.0</v>
+        <v>9965.0</v>
       </c>
     </row>
     <row r="14">
@@ -348,7 +348,7 @@
         <v>34</v>
       </c>
       <c r="C14" t="n">
-        <v>42950.0</v>
+        <v>9795.0</v>
       </c>
     </row>
     <row r="15">
@@ -359,7 +359,7 @@
         <v>35</v>
       </c>
       <c r="C15" t="n">
-        <v>41335.0</v>
+        <v>9710.0</v>
       </c>
     </row>
     <row r="16">
@@ -370,7 +370,7 @@
         <v>36</v>
       </c>
       <c r="C16" t="n">
-        <v>41075.0</v>
+        <v>8625.0</v>
       </c>
     </row>
     <row r="17">
@@ -381,7 +381,7 @@
         <v>37</v>
       </c>
       <c r="C17" t="n">
-        <v>40500.0</v>
+        <v>8320.0</v>
       </c>
     </row>
     <row r="18">
@@ -392,7 +392,7 @@
         <v>38</v>
       </c>
       <c r="C18" t="n">
-        <v>38645.0</v>
+        <v>8275.0</v>
       </c>
     </row>
     <row r="19">
@@ -403,7 +403,7 @@
         <v>39</v>
       </c>
       <c r="C19" t="n">
-        <v>38195.0</v>
+        <v>7240.0</v>
       </c>
     </row>
     <row r="20">
@@ -414,7 +414,7 @@
         <v>40</v>
       </c>
       <c r="C20" t="n">
-        <v>36230.0</v>
+        <v>5560.0</v>
       </c>
     </row>
     <row r="21">
@@ -425,7 +425,7 @@
         <v>41</v>
       </c>
       <c r="C21" t="n">
-        <v>26175.0</v>
+        <v>4690.0</v>
       </c>
     </row>
   </sheetData>
@@ -455,10 +455,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C2" t="n">
-        <v>75800.0</v>
+        <v>21960.0</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="n">
-        <v>71445.0</v>
+        <v>19180.0</v>
       </c>
     </row>
     <row r="4">
@@ -477,10 +477,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C4" t="n">
-        <v>63280.0</v>
+        <v>16820.0</v>
       </c>
     </row>
     <row r="5">
@@ -488,10 +488,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C5" t="n">
-        <v>57455.0</v>
+        <v>16670.0</v>
       </c>
     </row>
     <row r="6">
@@ -499,10 +499,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C6" t="n">
-        <v>55660.0</v>
+        <v>16150.0</v>
       </c>
     </row>
     <row r="7">
@@ -510,10 +510,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="C7" t="n">
-        <v>48355.0</v>
+        <v>13210.0</v>
       </c>
     </row>
     <row r="8">
@@ -521,10 +521,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C8" t="n">
-        <v>47075.0</v>
+        <v>12550.0</v>
       </c>
     </row>
     <row r="9">
@@ -532,10 +532,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C9" t="n">
-        <v>46715.0</v>
+        <v>11310.0</v>
       </c>
     </row>
     <row r="10">
@@ -543,10 +543,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C10" t="n">
-        <v>46260.0</v>
+        <v>10850.0</v>
       </c>
     </row>
     <row r="11">
@@ -554,10 +554,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C11" t="n">
-        <v>46080.0</v>
+        <v>10700.0</v>
       </c>
     </row>
     <row r="12">
@@ -565,10 +565,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C12" t="n">
-        <v>44335.0</v>
+        <v>8900.0</v>
       </c>
     </row>
     <row r="13">
@@ -576,10 +576,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C13" t="n">
-        <v>43630.0</v>
+        <v>8385.0</v>
       </c>
     </row>
     <row r="14">
@@ -587,10 +587,10 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C14" t="n">
-        <v>43350.0</v>
+        <v>8270.0</v>
       </c>
     </row>
     <row r="15">
@@ -598,10 +598,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C15" t="n">
-        <v>42005.0</v>
+        <v>8170.0</v>
       </c>
     </row>
     <row r="16">
@@ -609,10 +609,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C16" t="n">
-        <v>38780.0</v>
+        <v>7390.0</v>
       </c>
     </row>
     <row r="17">
@@ -620,10 +620,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C17" t="n">
-        <v>37510.0</v>
+        <v>6440.0</v>
       </c>
     </row>
     <row r="18">
@@ -631,10 +631,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C18" t="n">
-        <v>36695.0</v>
+        <v>6315.0</v>
       </c>
     </row>
     <row r="19">
@@ -642,10 +642,10 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="C19" t="n">
-        <v>35815.0</v>
+        <v>6250.0</v>
       </c>
     </row>
     <row r="20">
@@ -653,10 +653,10 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C20" t="n">
-        <v>31905.0</v>
+        <v>4400.0</v>
       </c>
     </row>
     <row r="21">
@@ -664,10 +664,10 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C21" t="n">
-        <v>26250.0</v>
+        <v>3790.0</v>
       </c>
     </row>
   </sheetData>
@@ -700,13 +700,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="n">
-        <v>130095.0</v>
+        <v>32700.0</v>
       </c>
       <c r="D2" t="n">
-        <v>3423.5526315789475</v>
+        <v>3270.0</v>
       </c>
     </row>
     <row r="3">
@@ -717,10 +717,10 @@
         <v>25</v>
       </c>
       <c r="C3" t="n">
-        <v>129605.0</v>
+        <v>31080.0</v>
       </c>
       <c r="D3" t="n">
-        <v>3410.657894736842</v>
+        <v>3108.0</v>
       </c>
     </row>
     <row r="4">
@@ -728,13 +728,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="C4" t="n">
-        <v>120440.0</v>
+        <v>30280.0</v>
       </c>
       <c r="D4" t="n">
-        <v>3169.4736842105262</v>
+        <v>3028.0</v>
       </c>
     </row>
     <row r="5">
@@ -742,13 +742,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="n">
-        <v>113510.0</v>
+        <v>30210.0</v>
       </c>
       <c r="D5" t="n">
-        <v>2987.1052631578946</v>
+        <v>3021.0</v>
       </c>
     </row>
     <row r="6">
@@ -756,13 +756,13 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C6" t="n">
-        <v>112925.0</v>
+        <v>26115.0</v>
       </c>
       <c r="D6" t="n">
-        <v>2971.7105263157896</v>
+        <v>2611.5</v>
       </c>
     </row>
     <row r="7">
@@ -770,13 +770,13 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C7" t="n">
-        <v>107120.0</v>
+        <v>24945.0</v>
       </c>
       <c r="D7" t="n">
-        <v>2818.9473684210525</v>
+        <v>2494.5</v>
       </c>
     </row>
     <row r="8">
@@ -784,13 +784,13 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C8" t="n">
-        <v>94860.0</v>
+        <v>24655.0</v>
       </c>
       <c r="D8" t="n">
-        <v>2496.315789473684</v>
+        <v>2465.5</v>
       </c>
     </row>
     <row r="9">
@@ -798,13 +798,13 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C9" t="n">
-        <v>94745.0</v>
+        <v>22260.0</v>
       </c>
       <c r="D9" t="n">
-        <v>2493.2894736842104</v>
+        <v>2226.0</v>
       </c>
     </row>
     <row r="10">
@@ -812,13 +812,13 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C10" t="n">
-        <v>93100.0</v>
+        <v>21520.0</v>
       </c>
       <c r="D10" t="n">
-        <v>2450.0</v>
+        <v>2152.0</v>
       </c>
     </row>
     <row r="11">
@@ -826,13 +826,13 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C11" t="n">
-        <v>89665.0</v>
+        <v>21460.0</v>
       </c>
       <c r="D11" t="n">
-        <v>2359.6052631578946</v>
+        <v>2146.0</v>
       </c>
     </row>
     <row r="12">
@@ -840,13 +840,13 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C12" t="n">
-        <v>87445.0</v>
+        <v>21110.0</v>
       </c>
       <c r="D12" t="n">
-        <v>2301.184210526316</v>
+        <v>2111.0</v>
       </c>
     </row>
     <row r="13">
@@ -854,13 +854,13 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C13" t="n">
-        <v>86970.0</v>
+        <v>20645.0</v>
       </c>
       <c r="D13" t="n">
-        <v>2288.684210526316</v>
+        <v>2064.5</v>
       </c>
     </row>
     <row r="14">
@@ -868,13 +868,13 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C14" t="n">
-        <v>84835.0</v>
+        <v>19935.0</v>
       </c>
       <c r="D14" t="n">
-        <v>2232.5</v>
+        <v>1993.5</v>
       </c>
     </row>
     <row r="15">
@@ -882,13 +882,13 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C15" t="n">
-        <v>84585.0</v>
+        <v>19695.0</v>
       </c>
       <c r="D15" t="n">
-        <v>2225.9210526315787</v>
+        <v>1969.5</v>
       </c>
     </row>
     <row r="16">
@@ -896,13 +896,13 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C16" t="n">
-        <v>84425.0</v>
+        <v>18505.0</v>
       </c>
       <c r="D16" t="n">
-        <v>2221.7105263157896</v>
+        <v>1850.5</v>
       </c>
     </row>
     <row r="17">
@@ -910,13 +910,13 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C17" t="n">
-        <v>80200.0</v>
+        <v>18345.0</v>
       </c>
       <c r="D17" t="n">
-        <v>2110.5263157894738</v>
+        <v>1834.5</v>
       </c>
     </row>
     <row r="18">
@@ -924,13 +924,13 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C18" t="n">
-        <v>76155.0</v>
+        <v>17990.0</v>
       </c>
       <c r="D18" t="n">
-        <v>2004.078947368421</v>
+        <v>1799.0</v>
       </c>
     </row>
     <row r="19">
@@ -938,13 +938,13 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C19" t="n">
-        <v>73240.0</v>
+        <v>13680.0</v>
       </c>
       <c r="D19" t="n">
-        <v>1927.3684210526317</v>
+        <v>1368.0</v>
       </c>
     </row>
     <row r="20">
@@ -952,13 +952,13 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C20" t="n">
-        <v>70010.0</v>
+        <v>10940.0</v>
       </c>
       <c r="D20" t="n">
-        <v>1842.3684210526317</v>
+        <v>1094.0</v>
       </c>
     </row>
     <row r="21">
@@ -966,13 +966,13 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C21" t="n">
-        <v>62870.0</v>
+        <v>9350.0</v>
       </c>
       <c r="D21" t="n">
-        <v>1654.4736842105262</v>
+        <v>935.0</v>
       </c>
     </row>
   </sheetData>

--- a/Analytics/E0/ShirtsXbookings_e0.xlsx
+++ b/Analytics/E0/ShirtsXbookings_e0.xlsx
@@ -82,64 +82,64 @@
     <t>20</t>
   </si>
   <si>
+    <t>Southampton</t>
+  </si>
+  <si>
+    <t>Brighton</t>
+  </si>
+  <si>
     <t>Fulham</t>
   </si>
   <si>
-    <t>Brighton</t>
-  </si>
-  <si>
-    <t>Southampton</t>
+    <t>Newcastle</t>
+  </si>
+  <si>
+    <t>West Ham</t>
+  </si>
+  <si>
+    <t>Tottenham</t>
+  </si>
+  <si>
+    <t>Leicester</t>
+  </si>
+  <si>
+    <t>Man City</t>
+  </si>
+  <si>
+    <t>Brentford</t>
   </si>
   <si>
     <t>Chelsea</t>
   </si>
   <si>
-    <t>Leicester</t>
+    <t>Wolves</t>
+  </si>
+  <si>
+    <t>Man United</t>
   </si>
   <si>
     <t>Arsenal</t>
   </si>
   <si>
-    <t>Man United</t>
-  </si>
-  <si>
-    <t>Man City</t>
-  </si>
-  <si>
-    <t>Wolves</t>
-  </si>
-  <si>
-    <t>Brentford</t>
+    <t>Aston Villa</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
   </si>
   <si>
     <t>Bournemouth</t>
   </si>
   <si>
-    <t>Tottenham</t>
-  </si>
-  <si>
-    <t>Newcastle</t>
-  </si>
-  <si>
-    <t>West Ham</t>
+    <t>Crystal Palace</t>
   </si>
   <si>
     <t>Ipswich</t>
   </si>
   <si>
-    <t>Aston Villa</t>
-  </si>
-  <si>
     <t>Nottm Forest</t>
   </si>
   <si>
-    <t>Liverpool</t>
-  </si>
-  <si>
     <t>Everton</t>
-  </si>
-  <si>
-    <t>Crystal Palace</t>
   </si>
   <si>
     <t>AwayTeam</t>
@@ -216,7 +216,7 @@
         <v>22</v>
       </c>
       <c r="C2" t="n">
-        <v>17120.0</v>
+        <v>26035.0</v>
       </c>
     </row>
     <row r="3">
@@ -227,7 +227,7 @@
         <v>23</v>
       </c>
       <c r="C3" t="n">
-        <v>17000.0</v>
+        <v>23490.0</v>
       </c>
     </row>
     <row r="4">
@@ -238,7 +238,7 @@
         <v>24</v>
       </c>
       <c r="C4" t="n">
-        <v>16270.0</v>
+        <v>23360.0</v>
       </c>
     </row>
     <row r="5">
@@ -249,7 +249,7 @@
         <v>25</v>
       </c>
       <c r="C5" t="n">
-        <v>14260.0</v>
+        <v>21065.0</v>
       </c>
     </row>
     <row r="6">
@@ -260,7 +260,7 @@
         <v>26</v>
       </c>
       <c r="C6" t="n">
-        <v>13520.0</v>
+        <v>20760.0</v>
       </c>
     </row>
     <row r="7">
@@ -271,7 +271,7 @@
         <v>27</v>
       </c>
       <c r="C7" t="n">
-        <v>12210.0</v>
+        <v>19965.0</v>
       </c>
     </row>
     <row r="8">
@@ -282,7 +282,7 @@
         <v>28</v>
       </c>
       <c r="C8" t="n">
-        <v>12190.0</v>
+        <v>19690.0</v>
       </c>
     </row>
     <row r="9">
@@ -293,7 +293,7 @@
         <v>29</v>
       </c>
       <c r="C9" t="n">
-        <v>11525.0</v>
+        <v>19265.0</v>
       </c>
     </row>
     <row r="10">
@@ -304,7 +304,7 @@
         <v>30</v>
       </c>
       <c r="C10" t="n">
-        <v>10760.0</v>
+        <v>19000.0</v>
       </c>
     </row>
     <row r="11">
@@ -315,7 +315,7 @@
         <v>31</v>
       </c>
       <c r="C11" t="n">
-        <v>10600.0</v>
+        <v>18725.0</v>
       </c>
     </row>
     <row r="12">
@@ -326,7 +326,7 @@
         <v>32</v>
       </c>
       <c r="C12" t="n">
-        <v>10075.0</v>
+        <v>17380.0</v>
       </c>
     </row>
     <row r="13">
@@ -337,7 +337,7 @@
         <v>33</v>
       </c>
       <c r="C13" t="n">
-        <v>9965.0</v>
+        <v>16080.0</v>
       </c>
     </row>
     <row r="14">
@@ -348,7 +348,7 @@
         <v>34</v>
       </c>
       <c r="C14" t="n">
-        <v>9795.0</v>
+        <v>16020.0</v>
       </c>
     </row>
     <row r="15">
@@ -359,7 +359,7 @@
         <v>35</v>
       </c>
       <c r="C15" t="n">
-        <v>9710.0</v>
+        <v>15190.0</v>
       </c>
     </row>
     <row r="16">
@@ -370,7 +370,7 @@
         <v>36</v>
       </c>
       <c r="C16" t="n">
-        <v>8625.0</v>
+        <v>15175.0</v>
       </c>
     </row>
     <row r="17">
@@ -381,7 +381,7 @@
         <v>37</v>
       </c>
       <c r="C17" t="n">
-        <v>8320.0</v>
+        <v>12625.0</v>
       </c>
     </row>
     <row r="18">
@@ -392,7 +392,7 @@
         <v>38</v>
       </c>
       <c r="C18" t="n">
-        <v>8275.0</v>
+        <v>11350.0</v>
       </c>
     </row>
     <row r="19">
@@ -403,7 +403,7 @@
         <v>39</v>
       </c>
       <c r="C19" t="n">
-        <v>7240.0</v>
+        <v>10875.0</v>
       </c>
     </row>
     <row r="20">
@@ -414,7 +414,7 @@
         <v>40</v>
       </c>
       <c r="C20" t="n">
-        <v>5560.0</v>
+        <v>10065.0</v>
       </c>
     </row>
     <row r="21">
@@ -425,7 +425,7 @@
         <v>41</v>
       </c>
       <c r="C21" t="n">
-        <v>4690.0</v>
+        <v>6680.0</v>
       </c>
     </row>
   </sheetData>
@@ -455,10 +455,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C2" t="n">
-        <v>21960.0</v>
+        <v>26970.0</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C3" t="n">
-        <v>19180.0</v>
+        <v>26945.0</v>
       </c>
     </row>
     <row r="4">
@@ -477,10 +477,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C4" t="n">
-        <v>16820.0</v>
+        <v>24890.0</v>
       </c>
     </row>
     <row r="5">
@@ -488,10 +488,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C5" t="n">
-        <v>16670.0</v>
+        <v>24180.0</v>
       </c>
     </row>
     <row r="6">
@@ -499,10 +499,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C6" t="n">
-        <v>16150.0</v>
+        <v>23210.0</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         <v>23</v>
       </c>
       <c r="C7" t="n">
-        <v>13210.0</v>
+        <v>20420.0</v>
       </c>
     </row>
     <row r="8">
@@ -521,10 +521,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C8" t="n">
-        <v>12550.0</v>
+        <v>18540.0</v>
       </c>
     </row>
     <row r="9">
@@ -532,10 +532,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C9" t="n">
-        <v>11310.0</v>
+        <v>18020.0</v>
       </c>
     </row>
     <row r="10">
@@ -543,10 +543,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C10" t="n">
-        <v>10850.0</v>
+        <v>17240.0</v>
       </c>
     </row>
     <row r="11">
@@ -554,10 +554,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C11" t="n">
-        <v>10700.0</v>
+        <v>17070.0</v>
       </c>
     </row>
     <row r="12">
@@ -565,10 +565,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C12" t="n">
-        <v>8900.0</v>
+        <v>15690.0</v>
       </c>
     </row>
     <row r="13">
@@ -576,10 +576,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C13" t="n">
-        <v>8385.0</v>
+        <v>15190.0</v>
       </c>
     </row>
     <row r="14">
@@ -587,10 +587,10 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C14" t="n">
-        <v>8270.0</v>
+        <v>15190.0</v>
       </c>
     </row>
     <row r="15">
@@ -598,10 +598,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C15" t="n">
-        <v>8170.0</v>
+        <v>15160.0</v>
       </c>
     </row>
     <row r="16">
@@ -609,10 +609,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C16" t="n">
-        <v>7390.0</v>
+        <v>13495.0</v>
       </c>
     </row>
     <row r="17">
@@ -620,10 +620,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C17" t="n">
-        <v>6440.0</v>
+        <v>13390.0</v>
       </c>
     </row>
     <row r="18">
@@ -631,10 +631,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C18" t="n">
-        <v>6315.0</v>
+        <v>11855.0</v>
       </c>
     </row>
     <row r="19">
@@ -642,10 +642,10 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C19" t="n">
-        <v>6250.0</v>
+        <v>11615.0</v>
       </c>
     </row>
     <row r="20">
@@ -653,10 +653,10 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="C20" t="n">
-        <v>4400.0</v>
+        <v>7835.0</v>
       </c>
     </row>
     <row r="21">
@@ -664,10 +664,10 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C21" t="n">
-        <v>3790.0</v>
+        <v>5890.0</v>
       </c>
     </row>
   </sheetData>
@@ -700,13 +700,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C2" t="n">
-        <v>32700.0</v>
+        <v>46660.0</v>
       </c>
       <c r="D2" t="n">
-        <v>3270.0</v>
+        <v>4666.0</v>
       </c>
     </row>
     <row r="3">
@@ -714,13 +714,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C3" t="n">
-        <v>31080.0</v>
+        <v>45670.0</v>
       </c>
       <c r="D3" t="n">
-        <v>3108.0</v>
+        <v>4567.0</v>
       </c>
     </row>
     <row r="4">
@@ -728,13 +728,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="C4" t="n">
-        <v>30280.0</v>
+        <v>43910.0</v>
       </c>
       <c r="D4" t="n">
-        <v>3028.0</v>
+        <v>4391.0</v>
       </c>
     </row>
     <row r="5">
@@ -742,13 +742,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C5" t="n">
-        <v>30210.0</v>
+        <v>43175.0</v>
       </c>
       <c r="D5" t="n">
-        <v>3021.0</v>
+        <v>4317.5</v>
       </c>
     </row>
     <row r="6">
@@ -756,13 +756,13 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C6" t="n">
-        <v>26115.0</v>
+        <v>40080.0</v>
       </c>
       <c r="D6" t="n">
-        <v>2611.5</v>
+        <v>4008.0</v>
       </c>
     </row>
     <row r="7">
@@ -770,13 +770,13 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C7" t="n">
-        <v>24945.0</v>
+        <v>37890.0</v>
       </c>
       <c r="D7" t="n">
-        <v>2494.5</v>
+        <v>3789.0</v>
       </c>
     </row>
     <row r="8">
@@ -787,10 +787,10 @@
         <v>24</v>
       </c>
       <c r="C8" t="n">
-        <v>24655.0</v>
+        <v>36855.0</v>
       </c>
       <c r="D8" t="n">
-        <v>2465.5</v>
+        <v>3685.5</v>
       </c>
     </row>
     <row r="9">
@@ -798,13 +798,13 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C9" t="n">
-        <v>22260.0</v>
+        <v>36255.0</v>
       </c>
       <c r="D9" t="n">
-        <v>2226.0</v>
+        <v>3625.5</v>
       </c>
     </row>
     <row r="10">
@@ -812,13 +812,13 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C10" t="n">
-        <v>21520.0</v>
+        <v>35920.0</v>
       </c>
       <c r="D10" t="n">
-        <v>2152.0</v>
+        <v>3592.0</v>
       </c>
     </row>
     <row r="11">
@@ -826,13 +826,13 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C11" t="n">
-        <v>21460.0</v>
+        <v>35920.0</v>
       </c>
       <c r="D11" t="n">
-        <v>2146.0</v>
+        <v>3592.0</v>
       </c>
     </row>
     <row r="12">
@@ -840,13 +840,13 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C12" t="n">
-        <v>21110.0</v>
+        <v>34955.0</v>
       </c>
       <c r="D12" t="n">
-        <v>2111.0</v>
+        <v>3495.5</v>
       </c>
     </row>
     <row r="13">
@@ -854,13 +854,13 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C13" t="n">
-        <v>20645.0</v>
+        <v>34245.0</v>
       </c>
       <c r="D13" t="n">
-        <v>2064.5</v>
+        <v>3424.5</v>
       </c>
     </row>
     <row r="14">
@@ -868,13 +868,13 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C14" t="n">
-        <v>19935.0</v>
+        <v>33090.0</v>
       </c>
       <c r="D14" t="n">
-        <v>1993.5</v>
+        <v>3309.0</v>
       </c>
     </row>
     <row r="15">
@@ -882,13 +882,13 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C15" t="n">
-        <v>19695.0</v>
+        <v>30645.0</v>
       </c>
       <c r="D15" t="n">
-        <v>1969.5</v>
+        <v>3064.5</v>
       </c>
     </row>
     <row r="16">
@@ -896,13 +896,13 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C16" t="n">
-        <v>18505.0</v>
+        <v>30615.0</v>
       </c>
       <c r="D16" t="n">
-        <v>1850.5</v>
+        <v>3061.5</v>
       </c>
     </row>
     <row r="17">
@@ -910,13 +910,13 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C17" t="n">
-        <v>18345.0</v>
+        <v>30365.0</v>
       </c>
       <c r="D17" t="n">
-        <v>1834.5</v>
+        <v>3036.5</v>
       </c>
     </row>
     <row r="18">
@@ -924,13 +924,13 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C18" t="n">
-        <v>17990.0</v>
+        <v>28115.0</v>
       </c>
       <c r="D18" t="n">
-        <v>1799.0</v>
+        <v>2811.5</v>
       </c>
     </row>
     <row r="19">
@@ -938,13 +938,13 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C19" t="n">
-        <v>13680.0</v>
+        <v>24740.0</v>
       </c>
       <c r="D19" t="n">
-        <v>1368.0</v>
+        <v>2474.0</v>
       </c>
     </row>
     <row r="20">
@@ -952,13 +952,13 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C20" t="n">
-        <v>10940.0</v>
+        <v>23915.0</v>
       </c>
       <c r="D20" t="n">
-        <v>1094.0</v>
+        <v>2391.5</v>
       </c>
     </row>
     <row r="21">
@@ -966,13 +966,13 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C21" t="n">
-        <v>9350.0</v>
+        <v>12570.0</v>
       </c>
       <c r="D21" t="n">
-        <v>935.0</v>
+        <v>1257.0</v>
       </c>
     </row>
   </sheetData>
